--- a/data_process/xlsx/jongno_B2.xlsx
+++ b/data_process/xlsx/jongno_B2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,16 +464,21 @@
           <t>contact</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>바인드 현대시티아울렛동대문점</t>
+          <t>슈프림</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>패션</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,29 +488,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로13길 20 B1 바인드</t>
+          <t>서울 중구 장충단로 280 지하상가 4-73호</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1462-2504</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1122705877/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142490940</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>모놀로그 인사점</t>
+          <t>여성빅사이즈 지존 두타</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>보세의류</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,61 +525,71 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동 165-6</t>
+          <t>서울 중구 장충단로 275 두타 3층 14호</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3398-6014</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/35830762/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142498714</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>유니클로 광화문 D-TOWER점</t>
+          <t>운선제한복 종로점</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>261</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 종로구 종로3길 17 D타워 광화문 1~2층</t>
+          <t>서울 종로구 종로 199</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02-2251-8202</t>
+          <t>02-742-2097</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/20136228/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142503973</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>알라모다 종로점</t>
+          <t>유니클로 광화문 D-TOWER점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,211 +604,246 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 종로3길 17 D타워 광화문 1~2층</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2251-8202</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37815201/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142509817</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>버윅 서울파이낸스센터점</t>
+          <t>Neared</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>수제화</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>정보 없음</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 돈화문로11다길 26 1층 Neared</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1343-6645</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1065506926/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142515318</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ABC마트 GS 동대문두타몰점</t>
+          <t>알라모다 종로점</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>서울 종로구 종로 121-1 2, 3층</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-766-4285</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/36342751/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142521022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>에이스아웃도어</t>
+          <t>아티플로 맞춤정장예복 종로본점</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 224-1 2층</t>
+          <t>서울 종로구 종로 122 3~4층</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>02-2247-8848</t>
+          <t>0507-1324-2862</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1311763017/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142526240</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>종로맞춤정장 에반테일러</t>
+          <t>버윅 서울파이낸스센터점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>수제화</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성 주얼리타운 지하1층 J350 에반테일러</t>
+          <t>서울 중구 세종대로 136 파이낸스빌딩 B1 102호</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02-742-3701</t>
+          <t>02-318-0511</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1160519662/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142531784</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>운선제한복 종로점</t>
+          <t>바인드 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 199</t>
+          <t>서울 중구 장충단로13길 20 B1 바인드</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>02-742-2097</t>
+          <t>0507-1462-2504</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/162326769/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142536916</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Neared</t>
+          <t>비스포크라인 맞춤정장예복 종로본점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>472</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11다길 26 1층 Neared</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 지하2층 S32, 33, 34호</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1343-6645</t>
+          <t>0507-1440-4966</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38018816/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142542299</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>아티플로 맞춤정장예복 종로본점</t>
+          <t>반니비스포크 명동점</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,285 +853,330 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>988</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 122 3~4층</t>
+          <t>서울 중구 삼일대로 363 장교빌딩 지하1층</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0507-1324-2862</t>
+          <t>02-774-8080</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/13486664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142547453</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>원더플레이스 두타몰점</t>
+          <t>오니츠카타이거 동대문점</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>273</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275</t>
+          <t>서울 중구 장충단로 275 두산타워 지하 1층</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3398-5112</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/31016186/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142552589</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>옷맛집</t>
+          <t>종로맞춤정장 에반테일러</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>73</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 29 1층 옷맛집</t>
+          <t>서울 종로구 종로 183 효성 주얼리타운 지하1층 J350 에반테일러</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1355-3867</t>
+          <t>02-742-3701</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/966470951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142557720</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>아르마리오 종로점</t>
+          <t>실크루트</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>728</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 109 2층 아르마리오 종로점</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 2층 91호</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1406-3123</t>
+          <t>02-2273-9285</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/20027434/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142562921</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>끌리는남자</t>
+          <t>동대문빅사이즈 아이몽 밀리오레</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>남성의류</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 109 2층 아르마리오 종로점</t>
+          <t>서울 중구 장충단로 263 밀리오레 1층 44호</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1406-3123</t>
+          <t>02-3393-2200</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1628485345/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142568095</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>루아앤로니</t>
+          <t>룰루레몬 롯데백화점 명동 스토어</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>기능성의류</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 266 동대문종합시장 B동 5087,5088,5089호</t>
+          <t>서울 중구 남대문로 81 롯데백화점 본점 3층</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1373-1242</t>
+          <t>0507-1338-3329</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1452434860/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142573277</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>로우로우 광장시장점</t>
+          <t>HH vintage</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>289</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 266 동대문종합시장 B동 5087,5088,5089호</t>
+          <t>서울 종로구 대명길 34 지층</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1373-1242</t>
+          <t>0507-1321-5469</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1509146916/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142578387</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>동대문빅사이즈 아이몽 밀리오레</t>
+          <t>에이스아웃도어</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>625</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 263 밀리오레 1층 44호</t>
+          <t>서울 종로구 종로 224-1 2층</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02-3393-2200</t>
+          <t>02-2247-8848</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11533341/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142583632</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>은아수</t>
+          <t>로우로우 광장시장점</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>625</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 263 밀리오레 1층 44호</t>
+          <t>서울 종로구 창경궁로 88 광장시장 239호</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02-3393-2200</t>
+          <t>02-2269-2891</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/36336607/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142589412</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>연인채</t>
+          <t>돌실나이 인사점 / 창의문화 갤러리 낳이</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1086,93 +1186,108 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>194</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성주얼리시티 지하1층 326호</t>
+          <t>서울 종로구 인사동길 35 돌실나이 인사점</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>02-2274-7844</t>
+          <t>0507-1490-2272</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/11572639/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142594680</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>비스포크라인 맞춤정장예복 종로본점</t>
+          <t>스파오 현대백화점면세점 동대문점</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성주얼리시티 지하2층 S32, 33, 34호</t>
+          <t>서울 중구 장충단로 275 10층</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0507-1440-4966</t>
+          <t>02-3668-8204</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1965923383/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142599868</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>잉글랜드테일러</t>
+          <t>연인채</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>969</t>
+          <t>330</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 종로구 김상옥로 30 한국기독교연합회관 b1</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 지하1층 326호</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1407-3713</t>
+          <t>02-2274-7844</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38500829/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142605037</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>동대문153</t>
+          <t>신자매만물상 대학로점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,221 +1297,256 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>330</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 266 A동 5층 5174호, 5175호, B동 5213호, 5214호</t>
+          <t>서울 종로구 창경궁로 234 동화빌딩 1층 104호</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1355-5364</t>
+          <t>0507-1345-7406</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1891743621/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142610666</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>슬로우스테디클럽 살롱 안국점</t>
+          <t>트레일헤드 종로5가점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>290</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 종로구 율곡로 84 가든타워 2층</t>
+          <t>서울 종로구 동호로38길 24 1층</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>02-725-1301</t>
+          <t>070-4118-9714</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/35592973/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142616439</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>여성빅사이즈 지존 두타</t>
+          <t>슬로우스테디클럽 살롱 안국점</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>290</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275 두타 3층 14호</t>
+          <t>서울 종로구 율곡로 84 가든타워 2층</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>02-3398-6014</t>
+          <t>02-725-1301</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/35896210/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142622286</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>메종드라헨느</t>
+          <t>캉골 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>패션</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>316</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로 136 지하2층202호</t>
+          <t>서울 중구 장충단로13길 20 현대시티아울렛 5층</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0507-1388-1120</t>
+          <t>02-2283-2518</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/38219702/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142627391</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>실크루트</t>
+          <t>니트</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>213</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성주얼리시티 2층 91호</t>
+          <t>서울 중구 장충단로 275 5층 20호</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>02-2273-9285</t>
+          <t>010-8693-1735</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1770969263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142632487</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>룰루레몬 롯데백화점 명동 스토어</t>
+          <t>루이비통 롯데백화점본점 롯데백화점본점</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>기능성의류</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>서울 중구 남대문로 73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>정보 없음</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>서울 중구 남대문로 81 롯데백화점 본점 3층</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0507-1338-3329</t>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1814159970/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142637795</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>트레일헤드 종로5가점</t>
+          <t>탑텐키즈 현대시티아울렛 동대문점</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>유아동복</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>458</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 종로구 동호로38길 24 1층</t>
+          <t>서울 중구 장충단로13길 20 현대시티타워</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>070-4118-9714</t>
+          <t>02-2283-2842</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1685962752/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142646587</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>크록스 현대시티아울렛동대문점</t>
+          <t>ABC마트 ST 대학로점</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1406,150 +1556,175 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>458</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로13길 20 5층 크록스</t>
+          <t>서울 종로구 대학로 132 에이비씨마트빌딩</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>02-2283-2706</t>
+          <t>02-743-5100</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/749583449/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142652200</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>때때롯살롱</t>
+          <t>여성 빅사이즈 하이럭키 밀리오레</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 종로구 수표로28길 21-12</t>
+          <t>서울 중구 장충단로 263 밀리오레빌딩 3층 222호</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>02-704-1369</t>
+          <t>0507-1368-0264</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1418900451/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142657368</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>금은보화</t>
+          <t>에르메스 롯데면세점본점</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 38-1 1층</t>
+          <t>서울 중구 을지로 30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>010-3334-9421</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1051802231/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142662613</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ABC마트 ST 대학로점</t>
+          <t>화려한정원</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 132 에이비씨마트빌딩</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 지하1층J045호</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>02-743-5100</t>
+          <t>0507-1443-1379</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/34646936/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142670511</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>슈프림</t>
+          <t>루아앤로니</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>패션</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>617</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 280 지하상가 4-73호</t>
+          <t>서울 종로구 종로 266 동대문종합시장 B동 5087,5088,5089호</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1373-1242</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1460908747/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142676258</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1741,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1582,18 +1757,23 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>02-540-3863</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1766622777/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142681306</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>젠틀몬스터 롯데백화점 본점</t>
+          <t>플랫폼 플레이스 롯데백화점본점</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1608,376 +1788,436 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 중구 남대문로 81 본점 3층</t>
+          <t>서울 중구 남대문로 81 6층</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02-772-3251</t>
+          <t>02-772-3608</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1962833444/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142686478</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>반니비스포크 명동점</t>
+          <t>원더플레이스 두타몰점</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 중구 삼일대로 363 장교빌딩 지하1층</t>
+          <t>서울 중구 장충단로 275</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02-774-8080</t>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1461463872/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142691905</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>에르메스 롯데면세점본점</t>
+          <t>원더플레이스 서울대학로점</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>935</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30</t>
+          <t>서울 종로구 대명길 28 1층</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-3673-1012</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1198357254/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142700799</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>로파우사다 인사점</t>
+          <t>수설화 인사동점</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>935</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 15 성보빌딩</t>
+          <t>서울 종로구 인사동길 44 1층 수설화</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02-722-2317</t>
+          <t>02-6406-0221</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1093197703/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142706513</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ABC마트</t>
+          <t>디엠빈티지 동묘1호점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 100</t>
+          <t>서울 종로구 난계로27길 72 1층</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>0507-1382-6766</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1392063263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142712078</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>보니타테일러 종로점</t>
+          <t>레드아이 대학로1호점</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 173</t>
+          <t>서울 종로구 대명길 5 대학로빌딩 1층 레드아이 대학로점</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>02-743-6622</t>
+          <t>0507-1344-0547</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/32397858/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142717450</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>나윤희한복</t>
+          <t>de r geist, de r zeit</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 121-2</t>
+          <t>서울 중구 청계천로 216 2층</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1460-1363</t>
+          <t>0507-1380-8102</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1090872502/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142722554</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>샤넬롯데면세점본점</t>
+          <t>크리스탈환타지</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30</t>
+          <t>서울 종로구 인사동길 17 1층 크리스탈환타지(Crystal Fantasy)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>080-805-9628</t>
+          <t>02-725-3325</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/37807032/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142728114</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>디올 롯데본점 여성</t>
+          <t>젠틀몬스터 롯데백화점 본점</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>선글라스</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30 롯데백화점 1F</t>
+          <t>서울 중구 남대문로 81 본점 3층</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>02-726-4224</t>
+          <t>02-772-3251</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/36219754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142733845</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>비비안웨스트우드 롯데백화점본점 B1</t>
+          <t>리틀그라운드 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>유아동복</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>415</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30</t>
+          <t>서울 중구 장충단로13길 20 현대시티아울렛 8층</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2283-2812</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1785475089/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142738964</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>페리쉬 시청점</t>
+          <t>샤넬롯데면세점본점</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>61</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>서울 중구 다동길 10</t>
+          <t>서울 중구 을지로 30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>02-414-6646</t>
+          <t>080-805-9628</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1290044166/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142744372</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>원더브라 대학로점</t>
+          <t>디올 롯데본점 여성</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 136</t>
+          <t>서울 중구 을지로 30 롯데백화점 1F</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>02-745-6101</t>
+          <t>02-726-4224</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/36701053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142749657</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>구찌 롯데백화점 본점</t>
+          <t>ABC마트 GS 동대문두타몰점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1987,81 +2227,96 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30</t>
+          <t>서울 중구 장충단로 275 두타몰 지하1층</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1577-1921</t>
+          <t>02-3398-4230</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1130526048/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142755389</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>니트</t>
+          <t>럭키팩토리</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>636</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275 5층 20호</t>
+          <t>서울 종로구 대명길 22</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>010-8693-1735</t>
+          <t>02-765-7172</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1351500236/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142760604</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>에블린 현대시티아울렛동대문점</t>
+          <t>아르마리오 종로점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>속옷</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로13길 20 현대시티아울렛 4층</t>
+          <t>서울 종로구 종로 109 2층 아르마리오 종로점</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>02-2283-2423</t>
+          <t>0507-1406-3123</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>https://pcmap.place.naver.com/place/1762728322/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142765771</t>
         </is>
       </c>
     </row>

--- a/data_process/xlsx/jongno_B2.xlsx
+++ b/data_process/xlsx/jongno_B2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,90 +469,105 @@
           <t>url</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>create_time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>슈프림</t>
+          <t>운선제한복 종로점</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>패션</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 280 지하상가 4-73호</t>
+          <t>서울 종로구 종로 199</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-742-2097</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1122705877/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142490940</t>
+          <t>https://pcmap.place.naver.com/place/20136228/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9999386&amp;y=37.571152&amp;timestamp=202309071811</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>여성빅사이즈 지존 두타</t>
+          <t>알라모다 종로점</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275 두타 3층 14호</t>
+          <t>서울 종로구 종로 121-1 2, 3층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>02-3398-6014</t>
+          <t>02-766-4285</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35830762/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142498714</t>
+          <t>https://pcmap.place.naver.com/place/36342751/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9910141&amp;y=37.5706494&amp;timestamp=202309071811</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>운선제한복 종로점</t>
+          <t>여성빅사이즈 지존 두타</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,103 +577,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>263</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 199</t>
+          <t>서울 중구 장충단로 275 두타 3층 14호</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02-742-2097</t>
+          <t>02-3398-6014</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/20136228/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142503973</t>
+          <t>https://pcmap.place.naver.com/place/35830762/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00861362000003&amp;y=37.56898874&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>유니클로 광화문 D-TOWER점</t>
+          <t>반니비스포크 명동점</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>277</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>서울 종로구 종로3길 17 D타워 광화문 1~2층</t>
+          <t>서울 중구 삼일대로 363 장교빌딩 지하1층</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>02-2251-8202</t>
+          <t>02-774-8080</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37815201/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142509817</t>
+          <t>https://pcmap.place.naver.com/place/13486664/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9870117&amp;y=37.5673094&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neared</t>
+          <t>미숙이네</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>서울 종로구 돈화문로11다길 26 1층 Neared</t>
+          <t>서울 종로구 창경궁로12길 36 대한별 14호</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1343-6645</t>
+          <t>02-2263-1335</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1065506926/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142515318</t>
+          <t>https://pcmap.place.naver.com/place/1698579153/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0000522&amp;y=37.5697364&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>알라모다 종로점</t>
+          <t>종로맞춤정장 에반테일러</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,27 +698,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>731</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 121-1 2, 3층</t>
+          <t>서울 종로구 종로 183 효성 주얼리타운 지하1층 J350 에반테일러</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>02-766-4285</t>
+          <t>02-742-3701</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36342751/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142521022</t>
+          <t>https://pcmap.place.naver.com/place/966470951/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.998319&amp;y=37.5714479&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
@@ -725,24 +760,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1311763017/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142526240</t>
+          <t>https://pcmap.place.naver.com/place/1311763017/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99113292487&amp;y=37.5700586615098&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>버윅 서울파이낸스센터점</t>
+          <t>유니클로 광화문 D-TOWER점</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>수제화</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -752,66 +792,76 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 중구 세종대로 136 파이낸스빌딩 B1 102호</t>
+          <t>서울 종로구 종로3길 17 D타워 광화문 1~2층</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>02-318-0511</t>
+          <t>02-2251-8202</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1160519662/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142531784</t>
+          <t>https://pcmap.place.naver.com/place/37815201/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.97887668725667&amp;y=37.57074159109033&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>바인드 현대시티아울렛동대문점</t>
+          <t>에이스아웃도어</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>633</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로13길 20 B1 바인드</t>
+          <t>서울 종로구 종로 224-1 2층</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1462-2504</t>
+          <t>02-2247-8848</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/162326769/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142536916</t>
+          <t>https://pcmap.place.naver.com/place/11533341/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0026432&amp;y=37.5707802&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>비스포크라인 맞춤정장예복 종로본점</t>
+          <t>슈프림</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>패션</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -821,140 +871,160 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성주얼리시티 지하2층 S32, 33, 34호</t>
+          <t>서울 중구 장충단로 280 지하상가 4-73호</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1440-4966</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38018816/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142542299</t>
+          <t>https://pcmap.place.naver.com/place/1122705877/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0096807&amp;y=37.5691968&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>반니비스포크 명동점</t>
+          <t>Neared</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>서울 중구 삼일대로 363 장교빌딩 지하1층</t>
+          <t>서울 종로구 돈화문로11다길 26 1층 Neared</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>02-774-8080</t>
+          <t>0507-1343-6645</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/13486664/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142547453</t>
+          <t>https://pcmap.place.naver.com/place/1065506926/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.990552&amp;y=37.573448&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>오니츠카타이거 동대문점</t>
+          <t>비스포크라인 맞춤정장예복 종로본점</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275 두산타워 지하 1층</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 지하2층 S32, 33, 34호</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02-3398-5112</t>
+          <t>0507-1440-4966</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/31016186/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142552589</t>
+          <t>https://pcmap.place.naver.com/place/38018816/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9983924&amp;y=37.5714459&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>종로맞춤정장 에반테일러</t>
+          <t>쌤소나이트 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성 주얼리타운 지하1층 J350 에반테일러</t>
+          <t>서울 중구 장충단로13길 20 현대시티아울렛 지하 1층</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02-742-3701</t>
+          <t>02-2283-2327</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/966470951/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142557720</t>
+          <t>https://pcmap.place.naver.com/place/38219687/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0076665&amp;y=37.5687346&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>실크루트</t>
+          <t>연인채</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -964,219 +1034,249 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>334</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성주얼리시티 2층 91호</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 지하1층 326호</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>02-2273-9285</t>
+          <t>02-2274-7844</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/20027434/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142562921</t>
+          <t>https://pcmap.place.naver.com/place/38500829/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99832&amp;y=37.571447&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>동대문빅사이즈 아이몽 밀리오레</t>
+          <t>디올 롯데본점 여성</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>종합패션</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 263 밀리오레 1층 44호</t>
+          <t>서울 중구 을지로 30 롯데백화점 1F</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>02-3393-2200</t>
+          <t>02-726-4224</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1628485345/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142568095</t>
+          <t>https://pcmap.place.naver.com/place/36701053/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9816208&amp;y=37.5654272&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>룰루레몬 롯데백화점 명동 스토어</t>
+          <t>송동수한복</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>기능성의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>서울 중구 남대문로 81 롯데백화점 본점 3층</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 지하 1층 J 371호</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1338-3329</t>
+          <t>02-2265-8560</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1452434860/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142573277</t>
+          <t>https://pcmap.place.naver.com/place/13526668/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99832&amp;y=37.571447&amp;timestamp=202309071812</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HH vintage</t>
+          <t>로우로우 광장시장점</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>가방,핸드백</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>197</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 34 지층</t>
+          <t>서울 종로구 창경궁로 88 광장시장 239호</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1321-5469</t>
+          <t>02-2269-2891</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1509146916/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142578387</t>
+          <t>https://pcmap.place.naver.com/place/36336607/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9989641&amp;y=37.5703187&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>에이스아웃도어</t>
+          <t>슬로우스테디클럽 살롱 안국점</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>315</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 224-1 2층</t>
+          <t>서울 종로구 율곡로 84 가든타워 2층</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>02-2247-8848</t>
+          <t>02-725-1301</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11533341/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142583632</t>
+          <t>https://pcmap.place.naver.com/place/35896210/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9884625&amp;y=37.5770962&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>로우로우 광장시장점</t>
+          <t>실크루트</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 88 광장시장 239호</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 2층 91호</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>02-2269-2891</t>
+          <t>02-2273-9285</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36336607/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142589412</t>
+          <t>https://pcmap.place.naver.com/place/20027434/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9982449&amp;y=37.5714859&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>돌실나이 인사점 / 창의문화 갤러리 낳이</t>
+          <t>화려한정원한복</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1186,451 +1286,511 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>617</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 35 돌실나이 인사점</t>
+          <t>서울 종로구 종로 183 효성주얼리시티 지하1층J045호</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1490-2272</t>
+          <t>0507-1443-1379</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/11572639/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142594680</t>
+          <t>https://pcmap.place.naver.com/place/34646936/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9986593&amp;y=37.5714899&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>스파오 현대백화점면세점 동대문점</t>
+          <t>여성 빅사이즈 하이럭키 밀리오레</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275 10층</t>
+          <t>서울 중구 장충단로 263 밀리오레빌딩 3층 222호</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>02-3668-8204</t>
+          <t>0507-1368-0264</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1965923383/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142599868</t>
+          <t>https://pcmap.place.naver.com/place/1418900451/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0084618&amp;y=37.5681191&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>연인채</t>
+          <t>GU샵 동대문두타몰</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>캐주얼웨어</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>137</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성주얼리시티 지하1층 326호</t>
+          <t>서울 중구 장충단로 275 B2층</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>02-2274-7844</t>
+          <t>02-3398-4912</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38500829/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142605037</t>
+          <t>https://pcmap.place.naver.com/place/1694940398/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0087831&amp;y=37.5688912&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>신자매만물상 대학로점</t>
+          <t>디엠빈티지 동묘1호점</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 종로구 창경궁로 234 동화빌딩 1층 104호</t>
+          <t>서울 종로구 난계로27길 72 1층</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1345-7406</t>
+          <t>0507-1382-6766</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1891743621/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142610666</t>
+          <t>https://pcmap.place.naver.com/place/1392063263/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.01919111979872&amp;y=37.57261695841816&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>트레일헤드 종로5가점</t>
+          <t>수설화 인사동점</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>등산,아웃도어</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 종로구 동호로38길 24 1층</t>
+          <t>서울 종로구 인사동길 44 1층 수설화</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>070-4118-9714</t>
+          <t>02-6406-0221</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35592973/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142616439</t>
+          <t>https://pcmap.place.naver.com/place/1093197703/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9848766&amp;y=37.5742648&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>슬로우스테디클럽 살롱 안국점</t>
+          <t>룰루레몬 롯데백화점 명동 스토어</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>기능성의류</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>293</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 종로구 율곡로 84 가든타워 2층</t>
+          <t>서울 중구 남대문로 81 롯데백화점 본점 3층</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>02-725-1301</t>
+          <t>0507-1338-3329</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/35896210/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142622286</t>
+          <t>https://pcmap.place.naver.com/place/1452434860/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.982027621&amp;y=37.565415451&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>캉골 현대시티아울렛동대문점</t>
+          <t>동대문빅사이즈 아이몽 밀리오레</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>88</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로13길 20 현대시티아울렛 5층</t>
+          <t>서울 중구 장충단로 263 밀리오레 1층 44호</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>02-2283-2518</t>
+          <t>02-3393-2200</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/38219702/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142627391</t>
+          <t>https://pcmap.place.naver.com/place/1628485345/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0084618&amp;y=37.5681191&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>니트</t>
+          <t>페리쉬 시청점</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>구제의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275 5층 20호</t>
+          <t>서울 중구 다동길 10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>010-8693-1735</t>
+          <t>02-414-6646</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1770969263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142632487</t>
+          <t>https://pcmap.place.naver.com/place/31850126/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9798508&amp;y=37.5678468&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>루이비통 롯데백화점본점 롯데백화점본점</t>
+          <t>트레일헤드 종로5가점</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>292</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 중구 남대문로 73</t>
+          <t>서울 종로구 동호로38길 24 1층</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>070-4118-9714</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1814159970/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142637795</t>
+          <t>https://pcmap.place.naver.com/place/35592973/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0035734&amp;y=37.5703874&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>탑텐키즈 현대시티아울렛 동대문점</t>
+          <t>버윅 서울파이낸스센터점</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>유아동복</t>
+          <t>수제화</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>53</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로13길 20 현대시티타워</t>
+          <t>서울 중구 세종대로 136 파이낸스빌딩 B1 102호</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>02-2283-2842</t>
+          <t>02-318-0511</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1685962752/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142646587</t>
+          <t>https://pcmap.place.naver.com/place/1160519662/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.978273&amp;y=37.5684201&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ABC마트 ST 대학로점</t>
+          <t>아크테릭스 롯데백화점 본점</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>등산,아웃도어</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 종로구 대학로 132 에이비씨마트빌딩</t>
+          <t>서울 중구 을지로 30 7층 아크테릭스</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>02-743-5100</t>
+          <t>02-772-3688</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/749583449/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142652200</t>
+          <t>https://pcmap.place.naver.com/place/12954122/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9818876&amp;y=37.5653013&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>여성 빅사이즈 하이럭키 밀리오레</t>
+          <t>아르마리오 종로점</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>707</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 263 밀리오레빌딩 3층 222호</t>
+          <t>서울 종로구 종로 109 2층 아르마리오 종로점</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0507-1368-0264</t>
+          <t>0507-1406-3123</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1418900451/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142657368</t>
+          <t>https://pcmap.place.naver.com/place/1762728322/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9896695&amp;y=37.5705945&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>에르메스 롯데면세점본점</t>
+          <t>엠핀 종로점</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>여성의류</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1640,283 +1800,323 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30</t>
+          <t>서울 종로구 종로 30-1 1층</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-540-3863</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1051802231/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142662613</t>
+          <t>https://pcmap.place.naver.com/place/1766622777/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98075338586038&amp;y=37.569977331703086&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>화려한정원</t>
+          <t>ABC마트 GS 동대문두타몰점</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>637</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 183 효성주얼리시티 지하1층J045호</t>
+          <t>서울 중구 장충단로 275 두타몰 지하1층</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0507-1443-1379</t>
+          <t>02-3398-4230</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/34646936/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142670511</t>
+          <t>https://pcmap.place.naver.com/place/1130526048/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00877510000001&amp;y=37.568949700000005&amp;timestamp=202309071813</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>루아앤로니</t>
+          <t>루스</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>패션잡화</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 266 동대문종합시장 B동 5087,5088,5089호</t>
+          <t>서울 종로구 종로60길 32 1층</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0507-1373-1242</t>
+          <t>0507-1330-6575</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1460908747/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142676258</t>
+          <t>https://pcmap.place.naver.com/place/1816099256/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0189883&amp;y=37.572309899999986&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>엠핀 종로점</t>
+          <t>보니타테일러 종로점</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.9</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>810</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 30-1 1층</t>
+          <t>서울 종로구 종로 173</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02-540-3863</t>
+          <t>02-743-6622</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1766622777/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142681306</t>
+          <t>https://pcmap.place.naver.com/place/417917504/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99698552752417&amp;y=37.570928440419344&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>플랫폼 플레이스 롯데백화점본점</t>
+          <t>크록스 현대시티아울렛동대문점</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>80</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 중구 남대문로 81 6층</t>
+          <t>서울 중구 장충단로13길 20 5층 크록스</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02-772-3608</t>
+          <t>02-2283-2706</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1962833444/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142686478</t>
+          <t>https://pcmap.place.naver.com/place/38219629/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0076394&amp;y=37.5689831&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>원더플레이스 두타몰점</t>
+          <t>ABC마트 ST 동대문현대아울렛점</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>699</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275</t>
+          <t>서울 중구 장충단로13길 20 현대시티아울렛 지하1층</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02-2283-2141</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1461463872/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142691905</t>
+          <t>https://pcmap.place.naver.com/place/1690937954/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00768010000002&amp;y=37.5687375&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>원더플레이스 서울대학로점</t>
+          <t>ABC마트 ST 대학로점</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>캐주얼웨어</t>
+          <t>신발</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 28 1층</t>
+          <t>서울 종로구 대학로 132 에이비씨마트빌딩</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02-3673-1012</t>
+          <t>02-743-5100</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1198357254/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142700799</t>
+          <t>https://pcmap.place.naver.com/place/749583449/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00206120000001&amp;y=37.5831213&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>수설화 인사동점</t>
+          <t>루아앤로니</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>한복</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 종로구 인사동길 44 1층 수설화</t>
+          <t>서울 종로구 종로 266 동대문종합시장 B동 5087,5088,5089호</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02-6406-0221</t>
+          <t>0507-1373-1242</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1093197703/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142706513</t>
+          <t>https://pcmap.place.naver.com/place/1460908747/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00731360000002&amp;y=37.5706765&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>디엠빈티지 동묘1호점</t>
+          <t>니트</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1926,101 +2126,116 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 종로구 난계로27길 72 1층</t>
+          <t>서울 중구 장충단로 275 5층 20호</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0507-1382-6766</t>
+          <t>010-8693-1735</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1392063263/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142712078</t>
+          <t>https://pcmap.place.naver.com/place/1770969263/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0087831&amp;y=37.5688912&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>레드아이 대학로1호점</t>
+          <t>아스날17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>셔츠</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>109</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 5 대학로빌딩 1층 레드아이 대학로점</t>
+          <t>서울 중구 을지로 51 교원내외빌딩b1,아스날17</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0507-1344-0547</t>
+          <t>0507-1366-7717</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/32397858/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142717450</t>
+          <t>https://pcmap.place.naver.com/place/1676173690/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9836985&amp;y=37.5664963&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>de r geist, de r zeit</t>
+          <t>한양주단</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>633</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>서울 중구 청계천로 216 2층</t>
+          <t>서울 종로구 종로 135 2층 한양주단</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0507-1380-8102</t>
+          <t>02-2266-1513</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1090872502/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142722554</t>
+          <t>https://pcmap.place.naver.com/place/11844432/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9924864&amp;y=37.5707527&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2257,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>197</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2057,266 +2272,306 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/37807032/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142728114</t>
+          <t>https://pcmap.place.naver.com/place/37807032/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98654103675632&amp;y=37.57233232311863&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>젠틀몬스터 롯데백화점 본점</t>
+          <t>동대문153</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>선글라스</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>서울 중구 남대문로 81 본점 3층</t>
+          <t>서울 종로구 종로 266 A동 5층 5174호, 5175호, B동 5213호, 5214호</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>02-772-3251</t>
+          <t>0507-1355-5364</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36219754/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142733845</t>
+          <t>https://pcmap.place.naver.com/place/1981346842/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0082578&amp;y=37.5703093&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>리틀그라운드 현대시티아울렛동대문점</t>
+          <t>루다</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>유아동복</t>
+          <t>보세의류</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로13길 20 현대시티아울렛 8층</t>
+          <t>서울 종로구 수표로28길 21-7</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>02-2283-2812</t>
+          <t>0507-1305-2163</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1785475089/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142738964</t>
+          <t>https://pcmap.place.naver.com/place/1656444201/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.9897164&amp;y=37.5732419&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>샤넬롯데면세점본점</t>
+          <t>베틀가</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>가방,핸드백</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>63</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30</t>
+          <t>서울 종로구 인사동길 26-1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>080-805-9628</t>
+          <t>02-723-4600</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1290044166/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142744372</t>
+          <t>https://pcmap.place.naver.com/place/12086119/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.98617644744266&amp;y=37.57315939305294&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>디올 롯데본점 여성</t>
+          <t>HH vintage</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>종합패션</t>
+          <t>구제의류</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 중구 을지로 30 롯데백화점 1F</t>
+          <t>서울 종로구 대명길 34 지층</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>02-726-4224</t>
+          <t>0507-1321-5469</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/36701053/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142749657</t>
+          <t>https://pcmap.place.naver.com/place/1509146916/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=126.99972206476232&amp;y=37.58318829004213&amp;timestamp=202309071814</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ABC마트 GS 동대문두타몰점</t>
+          <t>제이진옴므 종로본점</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>신발</t>
+          <t>남성정장</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 중구 장충단로 275 두타몰 지하1층</t>
+          <t>서울 종로구 율곡로 241-2 수진빌딩</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>02-3398-4230</t>
+          <t>0507-1362-0949</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1130526048/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142755389</t>
+          <t>https://pcmap.place.naver.com/place/13470499/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.00548735808003&amp;y=37.575492494096096&amp;timestamp=202309071815</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>럭키팩토리</t>
+          <t>동대문종합시장 한복상가</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>여성의류</t>
+          <t>한복</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 종로구 대명길 22</t>
+          <t>서울 종로구 종로 266 종로 266</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>02-765-7172</t>
+          <t>02-2262-0114</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1351500236/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142760604</t>
+          <t>https://pcmap.place.naver.com/place/853404651/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0073178&amp;y=37.5707192&amp;timestamp=202309071815</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>아르마리오 종로점</t>
+          <t>실크로드 의류부자재</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>남성정장</t>
+          <t>패션잡화</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>68</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 종로구 종로 109 2층 아르마리오 종로점</t>
+          <t>서울 종로구 종로 266 동대문종합시장 A동 5층 5113호 5114호</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0507-1406-3123</t>
+          <t>02-2261-2075</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://pcmap.place.naver.com/place/1762728322/home?entry=bmp&amp;from=map&amp;fromPanelNum=1&amp;ts=1693142765771</t>
+          <t>https://pcmap.place.naver.com/place/1173832207/home?entry=bmp&amp;from=map&amp;fromPanelNum=2&amp;x=127.0073178&amp;y=37.5707192&amp;timestamp=202309071815</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2023-09-07 18:11:23</t>
         </is>
       </c>
     </row>
